--- a/HPA/candidate.xlsx
+++ b/HPA/candidate.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13620" windowHeight="6405"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11025" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Shee1" sheetId="1" r:id="rId1"/>
     <sheet name="ورقة2" sheetId="2" r:id="rId2"/>
     <sheet name="ورقة3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>FirstUserName</t>
   </si>
@@ -110,19 +110,44 @@
   </si>
   <si>
     <t>a,b,c,d,e,f,g,h,i|1,2,3,4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>Sireen</t>
+  </si>
+  <si>
+    <t>Suliman Adeela</t>
+  </si>
+  <si>
+    <t>Meltshop ny;111 Fulton Street, New York, NY 10038, United States;Marketing Manager;March;2012;;;true</t>
+  </si>
+  <si>
+    <t>First Reference,+97264647478,Company Name,reference@test.com</t>
+  </si>
+  <si>
+    <t>Birziet University,,Secondary,Computer System Engineering,April,2009,,,true</t>
+  </si>
+  <si>
+    <t>C:\\Users\\LENOVO\\Pictures\\sireen.jpg||,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,13 +167,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -236,7 +267,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -271,7 +301,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,28 +476,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="55.85546875" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="28.140625" customWidth="1"/>
     <col min="12" max="12" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -544,7 +573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -579,6 +608,39 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>123123</v>
+      </c>
+      <c r="D4">
+        <v>123123</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="G4">
+        <v>123123123</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -588,24 +650,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HPA/candidate.xlsx
+++ b/HPA/candidate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11025" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12720" windowHeight="4365"/>
   </bookViews>
   <sheets>
     <sheet name="Shee1" sheetId="1" r:id="rId1"/>
@@ -121,13 +121,13 @@
     <t>Meltshop ny;111 Fulton Street, New York, NY 10038, United States;Marketing Manager;March;2012;;;true</t>
   </si>
   <si>
-    <t>First Reference,+97264647478,Company Name,reference@test.com</t>
-  </si>
-  <si>
     <t>Birziet University,,Secondary,Computer System Engineering,April,2009,,,true</t>
   </si>
   <si>
     <t>C:\\Users\\LENOVO\\Pictures\\sireen.jpg||,</t>
+  </si>
+  <si>
+    <t>First Reference,+97264647478,reference@test.com,Company Name</t>
   </si>
 </sst>
 </file>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -491,7 +491,7 @@
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="55.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="28.140625" customWidth="1"/>
     <col min="12" max="12" width="22.140625" customWidth="1"/>
@@ -632,13 +632,13 @@
         <v>33</v>
       </c>
       <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
         <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>

--- a/HPA/candidate.xlsx
+++ b/HPA/candidate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12720" windowHeight="4365"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13500" windowHeight="3570"/>
   </bookViews>
   <sheets>
     <sheet name="Shee1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>FirstUserName</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Suliman Adeela</t>
   </si>
   <si>
-    <t>Meltshop ny;111 Fulton Street, New York, NY 10038, United States;Marketing Manager;March;2012;;;true</t>
-  </si>
-  <si>
     <t>Birziet University,,Secondary,Computer System Engineering,April,2009,,,true</t>
   </si>
   <si>
@@ -128,6 +125,12 @@
   </si>
   <si>
     <t>First Reference,+97264647478,reference@test.com,Company Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          </t>
+  </si>
+  <si>
+    <t>Meltshop ny;111 Fulton St, New York, NY 10038, United States;Marketing Manager;March;2012;;;true</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -490,11 +493,11 @@
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="55.85546875" customWidth="1"/>
+    <col min="8" max="8" width="93.7109375" customWidth="1"/>
     <col min="9" max="9" width="46.140625" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -629,19 +632,24 @@
         <v>123123123</v>
       </c>
       <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
         <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="H5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/HPA/candidate.xlsx
+++ b/HPA/candidate.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13500" windowHeight="3570"/>
+    <workbookView xWindow="2625" yWindow="2430" windowWidth="14790" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Shee1" sheetId="1" r:id="rId1"/>
     <sheet name="ورقة2" sheetId="2" r:id="rId2"/>
     <sheet name="ورقة3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>FirstUserName</t>
   </si>
@@ -118,6 +118,9 @@
     <t>Suliman Adeela</t>
   </si>
   <si>
+    <t>Meltshop ny;111 Fulton Street, New York, NY 10038, United States;Marketing Manager;March;2012;;;true</t>
+  </si>
+  <si>
     <t>Birziet University,,Secondary,Computer System Engineering,April,2009,,,true</t>
   </si>
   <si>
@@ -125,19 +128,13 @@
   </si>
   <si>
     <t>First Reference,+97264647478,reference@test.com,Company Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          </t>
-  </si>
-  <si>
-    <t>Meltshop ny;111 Fulton St, New York, NY 10038, United States;Marketing Manager;March;2012;;;true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +267,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -304,6 +302,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,28 +478,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="93.7109375" customWidth="1"/>
+    <col min="8" max="8" width="55.85546875" customWidth="1"/>
     <col min="9" max="9" width="46.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" customWidth="1"/>
+    <col min="10" max="10" width="64.5703125" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -576,7 +575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -614,7 +613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -632,24 +631,19 @@
         <v>123123123</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="H5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -658,24 +652,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HPA/candidate.xlsx
+++ b/HPA/candidate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13500" windowHeight="3570"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="21030" windowHeight="6285"/>
   </bookViews>
   <sheets>
     <sheet name="Shee1" sheetId="1" r:id="rId1"/>
@@ -127,10 +127,10 @@
     <t>First Reference,+97264647478,reference@test.com,Company Name</t>
   </si>
   <si>
-    <t xml:space="preserve">                          </t>
-  </si>
-  <si>
     <t>Meltshop ny;111 Fulton St, New York, NY 10038, United States;Marketing Manager;March;2012;;;true</t>
+  </si>
+  <si>
+    <t>sireen+9@harri.com</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -492,6 +492,7 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="93.7109375" customWidth="1"/>
     <col min="9" max="9" width="46.140625" customWidth="1"/>
@@ -632,7 +633,7 @@
         <v>123123123</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
         <v>35</v>
@@ -648,11 +649,17 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="H5" t="s">
-        <v>36</v>
+      <c r="C5">
+        <v>123123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
